--- a/Record.xlsx
+++ b/Record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="0" windowWidth="30780" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="14680" yWindow="240" windowWidth="29020" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>clone graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,12 +228,161 @@
     <t>clone random list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Topological sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用的是BFS的方法 用到了hashmap和queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combination sum i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combination sum ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combination sum i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常类似的题目  方法都是dfs 但是我觉得自己对于dfs还没有很好的掌握 需要仔细研读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">permutation I </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">permutation II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列 没有start 有visited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest Common Prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不理解prefix 和如何求解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement Queue using two stacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subarray Sum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">subarray sum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过debug 自己做出来了 但是debug用了很多时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subarray Sum</t>
+  </si>
+  <si>
+    <t>Minimum subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threeSumCloset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与3 sum非常类似 注意如何取closet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4  sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到底是哪儿debug出了问题啊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeElement II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeElement I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find first missing positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,8 +450,56 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,8 +524,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -451,8 +660,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -460,37 +673,51 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,12 +742,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,56 +749,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,13 +758,172 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -920,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R45"/>
+  <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -932,701 +1264,1526 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="19" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="K2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="1:18" ht="17">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="20" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="39" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="23"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="16">
-      <c r="A4" s="4">
+      <c r="A4" s="21">
         <v>42159</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="34">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="37">
+      <c r="F4" s="41"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="50">
         <v>42159</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="38" t="s">
+      <c r="N4" s="30"/>
+      <c r="O4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="1:18" ht="16">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18" ht="17">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="27"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>20</v>
+      </c>
       <c r="Q5" s="28"/>
       <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="16">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="32"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="16">
+        <v>42160</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="16">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="16">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:18" ht="16">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18" ht="16">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="A8" s="21">
+        <v>42160</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="34">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" ht="17">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="44">
+        <v>42163</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" ht="17">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="16">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="A11" s="21">
+        <v>42163</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="34">
+        <v>6</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="16">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="16">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="16">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="44">
+        <v>42164</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="16">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="16">
+        <v>42165</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="29"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" ht="16">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="A17" s="21">
+        <v>42164</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="34">
+        <v>7</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" ht="16">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="16">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" ht="16">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="67"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" ht="16">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="16">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="25" spans="1:18" ht="17">
-      <c r="A25" s="33" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" ht="16">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="2"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" ht="16">
+      <c r="A24" s="21">
+        <v>42165</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" ht="16">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" ht="16">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" ht="16">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="2"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" ht="16">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" ht="16">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="2"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" ht="16">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" ht="16">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" ht="16">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" ht="16">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" ht="16">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="2"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" ht="16">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="2"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" ht="16">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="2"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" ht="16">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="2"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" ht="16">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="2"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:18" ht="16">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="2"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" ht="16">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="2"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+    </row>
+    <row r="41" spans="1:18" ht="16">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="2"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+    </row>
+    <row r="42" spans="1:18" ht="16">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="2"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:18" ht="16">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="2"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" ht="16">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="2"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" ht="16">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="2"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18" ht="16">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="2"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" ht="16">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="2"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" ht="16">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="2"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" ht="16">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="2"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" ht="16">
+      <c r="A50" s="21">
+        <v>42165</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="2"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" ht="16">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="2"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+    </row>
+    <row r="52" spans="1:18" ht="16">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="2"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" ht="16">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="2"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" ht="16">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="2"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" ht="16">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="2"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" ht="16">
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" ht="16">
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" ht="16">
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" ht="16">
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+    </row>
+    <row r="60" spans="1:18" ht="16">
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+    </row>
+    <row r="61" spans="1:18" ht="16">
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="64" spans="1:18" ht="17">
+      <c r="A64" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:18" ht="17">
-      <c r="A26" s="33" t="s">
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:9" ht="17">
+      <c r="A65" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33" t="s">
+      <c r="D65" s="33"/>
+      <c r="E65" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:18" ht="16">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:18" ht="16">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:18" ht="16">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-    </row>
-    <row r="32" spans="1:18" ht="16">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" ht="16">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-    </row>
-    <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" ht="16">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="1:9" ht="16">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" ht="16">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" ht="16">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9" ht="16">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" ht="16">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="1:9" ht="16">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9" ht="16">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="1:9" ht="16">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:9" ht="16">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:9" ht="16">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="59"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" ht="16">
+      <c r="A66" s="58">
+        <v>42164</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9" ht="16">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" ht="16">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="16">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="16">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="16">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="16">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" spans="1:9" ht="16">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="16">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" spans="1:9" ht="16">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="1:9" ht="16">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="16">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="16">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" spans="1:9" ht="16">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" ht="16">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" ht="16">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="16">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="16">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" ht="16">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
+  <mergeCells count="78">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A50:B55"/>
+    <mergeCell ref="C50:D55"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C17:D23"/>
+    <mergeCell ref="A17:B23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A11:B16"/>
+    <mergeCell ref="C11:D16"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="K2:R2"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="C4:D7"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A2:I2"/>
@@ -1634,6 +2791,26 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="240" windowWidth="29020" windowHeight="15600" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>clone graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,14 @@
   </si>
   <si>
     <t>sqrt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invertBinaryTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Add binary </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,157 +766,157 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1254,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1264,41 +1272,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="17">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="K2" s="30" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="17">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1308,84 +1316,84 @@
       <c r="L3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" ht="16">
-      <c r="A4" s="21">
+      <c r="A4" s="25">
         <v>42159</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="34">
+      <c r="B4" s="26"/>
+      <c r="C4" s="33">
         <v>2</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="50">
+      <c r="K4" s="70">
         <v>42159</v>
       </c>
       <c r="L4" s="14"/>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" ht="17">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="31" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="K5" s="51"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="29"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:18" ht="16">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1393,82 +1401,82 @@
         <v>42160</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" ht="16">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="48"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="16">
-      <c r="A8" s="21">
+      <c r="A8" s="25">
         <v>42160</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="34">
+      <c r="B8" s="26"/>
+      <c r="C8" s="33">
         <v>3</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="49"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18" ht="17">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="31" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="44">
+      <c r="K9" s="54">
         <v>42163</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="52" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="20" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="14"/>
@@ -1476,154 +1484,154 @@
       <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="17">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="31" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="57"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="29"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="16">
-      <c r="A11" s="21">
+      <c r="A11" s="25">
         <v>42163</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="34">
+      <c r="B11" s="26"/>
+      <c r="C11" s="33">
         <v>6</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="K11" s="57"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="16">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="31" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="57"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="16">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="31" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="29"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="16">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="53" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="44">
+      <c r="K14" s="54">
         <v>42164</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="29"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="16">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="53" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="46"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="62"/>
+      <c r="N15" s="58"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="55" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1631,28 +1639,28 @@
         <v>42165</v>
       </c>
       <c r="L16" s="14"/>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="29"/>
+      <c r="N16" s="32"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" ht="16">
-      <c r="A17" s="21">
+      <c r="A17" s="25">
         <v>42164</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="34">
+      <c r="B17" s="26"/>
+      <c r="C17" s="33">
         <v>7</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1666,14 +1674,14 @@
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" ht="16">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="31" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1687,14 +1695,14 @@
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="16">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="31" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1708,18 +1716,18 @@
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" ht="16">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="31" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="66" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="2"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1731,16 +1739,16 @@
       <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" ht="16">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="31" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="2"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1752,14 +1760,14 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="16">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="65" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1773,18 +1781,18 @@
       <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="16">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="31" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="63" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="2"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1796,17 +1804,17 @@
       <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="16">
-      <c r="A24" s="21">
+      <c r="A24" s="25">
         <v>42165</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="71"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="10"/>
       <c r="I24" s="2"/>
       <c r="K24" s="14"/>
@@ -1819,15 +1827,15 @@
       <c r="R24" s="14"/>
     </row>
     <row r="25" spans="1:18" ht="16">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="71"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="10"/>
       <c r="I25" s="2"/>
       <c r="K25" s="14"/>
@@ -1840,15 +1848,15 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="16">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="10"/>
       <c r="I26" s="2"/>
       <c r="K26" s="14"/>
@@ -1861,13 +1869,13 @@
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="71"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="10"/>
       <c r="I27" s="2"/>
       <c r="K27" s="14"/>
@@ -1880,13 +1888,13 @@
       <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="10"/>
       <c r="I28" s="2"/>
       <c r="K28" s="14"/>
@@ -1899,13 +1907,13 @@
       <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="16">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="71"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="10"/>
       <c r="I29" s="2"/>
       <c r="K29" s="14"/>
@@ -1924,7 +1932,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="10"/>
       <c r="I30" s="2"/>
       <c r="K30" s="14"/>
@@ -1943,7 +1951,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="71"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="10"/>
       <c r="I31" s="2"/>
       <c r="K31" s="14"/>
@@ -1962,7 +1970,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="10"/>
       <c r="I32" s="2"/>
       <c r="K32" s="14"/>
@@ -1981,7 +1989,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="71"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="10"/>
       <c r="I33" s="2"/>
       <c r="K33" s="14"/>
@@ -2000,7 +2008,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="71"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="10"/>
       <c r="I34" s="2"/>
       <c r="K34" s="14"/>
@@ -2019,7 +2027,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="71"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="10"/>
       <c r="I35" s="2"/>
       <c r="K35" s="14"/>
@@ -2038,7 +2046,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="71"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="10"/>
       <c r="I36" s="2"/>
       <c r="K36" s="14"/>
@@ -2057,7 +2065,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="71"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="10"/>
       <c r="I37" s="2"/>
       <c r="K37" s="14"/>
@@ -2076,7 +2084,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="71"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="10"/>
       <c r="I38" s="2"/>
       <c r="K38" s="14"/>
@@ -2095,7 +2103,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="71"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="10"/>
       <c r="I39" s="2"/>
       <c r="K39" s="14"/>
@@ -2114,7 +2122,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="71"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="10"/>
       <c r="I40" s="2"/>
       <c r="K40" s="14"/>
@@ -2133,7 +2141,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="10"/>
       <c r="I41" s="2"/>
       <c r="K41" s="14"/>
@@ -2152,7 +2160,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="71"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="10"/>
       <c r="I42" s="2"/>
       <c r="K42" s="14"/>
@@ -2171,7 +2179,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="71"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="10"/>
       <c r="I43" s="2"/>
       <c r="K43" s="14"/>
@@ -2190,7 +2198,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="71"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="10"/>
       <c r="I44" s="2"/>
       <c r="K44" s="14"/>
@@ -2209,7 +2217,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="71"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="10"/>
       <c r="I45" s="2"/>
       <c r="K45" s="14"/>
@@ -2228,7 +2236,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="71"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="10"/>
       <c r="I46" s="2"/>
       <c r="K46" s="14"/>
@@ -2247,7 +2255,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="71"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="10"/>
       <c r="I47" s="2"/>
       <c r="K47" s="14"/>
@@ -2266,7 +2274,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="71"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="10"/>
       <c r="I48" s="2"/>
       <c r="K48" s="14"/>
@@ -2285,7 +2293,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="71"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="10"/>
       <c r="I49" s="2"/>
       <c r="K49" s="14"/>
@@ -2298,15 +2306,15 @@
       <c r="R49" s="14"/>
     </row>
     <row r="50" spans="1:18" ht="16">
-      <c r="A50" s="21">
+      <c r="A50" s="25">
         <v>42165</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="70"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
       <c r="K50" s="14"/>
@@ -2319,13 +2327,13 @@
       <c r="R50" s="14"/>
     </row>
     <row r="51" spans="1:18" ht="16">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="70"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
       <c r="K51" s="14"/>
@@ -2338,15 +2346,15 @@
       <c r="R51" s="14"/>
     </row>
     <row r="52" spans="1:18" ht="16">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="31" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="70"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
       <c r="K52" s="14"/>
@@ -2359,13 +2367,13 @@
       <c r="R52" s="14"/>
     </row>
     <row r="53" spans="1:18" ht="16">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="70"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2"/>
       <c r="K53" s="14"/>
@@ -2378,13 +2386,13 @@
       <c r="R53" s="14"/>
     </row>
     <row r="54" spans="1:18" ht="16">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="70"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
       <c r="K54" s="14"/>
@@ -2397,13 +2405,13 @@
       <c r="R54" s="14"/>
     </row>
     <row r="55" spans="1:18" ht="16">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="70"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2"/>
       <c r="K55" s="14"/>
@@ -2487,70 +2495,80 @@
       <c r="I62" s="13"/>
     </row>
     <row r="64" spans="1:18" ht="17">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
     </row>
     <row r="65" spans="1:9" ht="17">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33" t="s">
+      <c r="B65" s="64"/>
+      <c r="C65" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33" t="s">
+      <c r="D65" s="64"/>
+      <c r="E65" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="60" t="s">
+      <c r="F65" s="64"/>
+      <c r="G65" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="20"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="40"/>
     </row>
     <row r="66" spans="1:9" ht="16">
-      <c r="A66" s="58">
+      <c r="A66" s="69">
         <v>42164</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="40"/>
+      <c r="C66" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="20"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="40"/>
     </row>
     <row r="67" spans="1:9" ht="16">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
+      <c r="A67" s="69">
+        <v>42167</v>
+      </c>
+      <c r="B67" s="40"/>
+      <c r="C67" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="39">
+        <v>1</v>
+      </c>
+      <c r="F67" s="40"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" ht="16">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="40"/>
+      <c r="E68" s="39">
+        <v>1</v>
+      </c>
+      <c r="F68" s="40"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -2732,53 +2750,27 @@
       <c r="I84" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A50:B55"/>
-    <mergeCell ref="C50:D55"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C17:D23"/>
-    <mergeCell ref="A17:B23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A11:B16"/>
-    <mergeCell ref="C11:D16"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="82">
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="A64:I64"/>
     <mergeCell ref="A65:B65"/>
@@ -2795,22 +2787,52 @@
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C17:D23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A50:B55"/>
+    <mergeCell ref="C50:D55"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B23"/>
+    <mergeCell ref="A11:B16"/>
+    <mergeCell ref="C11:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>clone graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,14 @@
   </si>
   <si>
     <t xml:space="preserve">Add binary </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntervalSum simple method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval sum method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,36 +782,51 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,103 +843,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1262,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:F67"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1272,41 +1280,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="17">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="K2" s="63" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="K2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:18" ht="17">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1316,43 +1324,43 @@
       <c r="L3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="63"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" ht="16">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>42159</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="33">
+      <c r="B4" s="27"/>
+      <c r="C4" s="38">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="66" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="70">
+      <c r="K4" s="44">
         <v>42159</v>
       </c>
       <c r="L4" s="14"/>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="63"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1361,39 +1369,39 @@
       <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" ht="17">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="23" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="K5" s="71"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="32"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="16">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1401,11 +1409,11 @@
         <v>42160</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="60" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="50" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="19"/>
@@ -1413,69 +1421,69 @@
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" ht="16">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="61"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="16">
-      <c r="A8" s="25">
+      <c r="A8" s="26">
         <v>42160</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="33">
+      <c r="B8" s="27"/>
+      <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="62"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18" ht="17">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="23" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="54">
+      <c r="K9" s="57">
         <v>42163</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="20" t="s">
         <v>29</v>
       </c>
@@ -1484,23 +1492,23 @@
       <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="17">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="23" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="32"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="14"/>
       <c r="P10" s="20" t="s">
         <v>32</v>
@@ -1509,129 +1517,129 @@
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="16">
-      <c r="A11" s="25">
+      <c r="A11" s="26">
         <v>42163</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="33">
+      <c r="B11" s="27"/>
+      <c r="C11" s="38">
         <v>6</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="16">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="23" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="16">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="23" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="K13" s="56"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="34"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="16">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="50" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="51"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="54">
+      <c r="K14" s="57">
         <v>42164</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="32"/>
+      <c r="N14" s="34"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="16">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="50" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="51"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="59"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="58"/>
+      <c r="N15" s="61"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="16">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="52" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1639,28 +1647,28 @@
         <v>42165</v>
       </c>
       <c r="L16" s="14"/>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="32"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" ht="16">
-      <c r="A17" s="25">
+      <c r="A17" s="26">
         <v>42164</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="33">
+      <c r="B17" s="27"/>
+      <c r="C17" s="38">
         <v>7</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1674,14 +1682,14 @@
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" ht="16">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="23" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1695,14 +1703,14 @@
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="16">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="23" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1716,18 +1724,18 @@
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" ht="16">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="23" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="2"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1739,16 +1747,16 @@
       <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" ht="16">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="23" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="2"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1760,14 +1768,14 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="16">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="43" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1781,18 +1789,18 @@
       <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="16">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="23" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="45" t="s">
+      <c r="F23" s="37"/>
+      <c r="G23" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="2"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1804,16 +1812,16 @@
       <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="16">
-      <c r="A24" s="25">
+      <c r="A24" s="26">
         <v>42165</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="22"/>
       <c r="H24" s="10"/>
       <c r="I24" s="2"/>
@@ -1827,14 +1835,14 @@
       <c r="R24" s="14"/>
     </row>
     <row r="25" spans="1:18" ht="16">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="22"/>
       <c r="H25" s="10"/>
       <c r="I25" s="2"/>
@@ -1848,14 +1856,14 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="16">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="22"/>
       <c r="H26" s="10"/>
       <c r="I26" s="2"/>
@@ -1869,8 +1877,8 @@
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
@@ -1888,8 +1896,8 @@
       <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -1907,8 +1915,8 @@
       <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="16">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="9"/>
@@ -1926,12 +1934,16 @@
       <c r="R29" s="14"/>
     </row>
     <row r="30" spans="1:18" ht="16">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="26">
+        <v>42177</v>
+      </c>
+      <c r="B30" s="27"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="37"/>
       <c r="G30" s="22"/>
       <c r="H30" s="10"/>
       <c r="I30" s="2"/>
@@ -2306,14 +2318,14 @@
       <c r="R49" s="14"/>
     </row>
     <row r="50" spans="1:18" ht="16">
-      <c r="A50" s="25">
+      <c r="A50" s="26">
         <v>42165</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="21"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
@@ -2327,12 +2339,12 @@
       <c r="R50" s="14"/>
     </row>
     <row r="51" spans="1:18" ht="16">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="21"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
@@ -2346,14 +2358,14 @@
       <c r="R51" s="14"/>
     </row>
     <row r="52" spans="1:18" ht="16">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="23" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="21"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
@@ -2367,12 +2379,12 @@
       <c r="R52" s="14"/>
     </row>
     <row r="53" spans="1:18" ht="16">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="21"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2"/>
@@ -2386,12 +2398,12 @@
       <c r="R53" s="14"/>
     </row>
     <row r="54" spans="1:18" ht="16">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="21"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
@@ -2405,12 +2417,12 @@
       <c r="R54" s="14"/>
     </row>
     <row r="55" spans="1:18" ht="16">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="21"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2"/>
@@ -2495,91 +2507,97 @@
       <c r="I62" s="13"/>
     </row>
     <row r="64" spans="1:18" ht="17">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" spans="1:9" ht="17">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64" t="s">
+      <c r="D65" s="46"/>
+      <c r="E65" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="42" t="s">
+      <c r="F65" s="46"/>
+      <c r="G65" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="40"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="66" spans="1:9" ht="16">
-      <c r="A66" s="69">
+      <c r="A66" s="25">
         <v>42164</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="39" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="40"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="24"/>
     </row>
     <row r="67" spans="1:9" ht="16">
-      <c r="A67" s="69">
+      <c r="A67" s="25">
         <v>42167</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="39" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="39">
+      <c r="D67" s="24"/>
+      <c r="E67" s="23">
         <v>1</v>
       </c>
-      <c r="F67" s="40"/>
+      <c r="F67" s="24"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" ht="16">
-      <c r="A68" s="39"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="39" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="39">
+      <c r="D68" s="24"/>
+      <c r="E68" s="23">
         <v>1</v>
       </c>
-      <c r="F68" s="40"/>
+      <c r="F68" s="24"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" ht="16">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="A69" s="25">
+        <v>42177</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="23">
+        <v>1</v>
+      </c>
+      <c r="F69" s="24"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -2750,25 +2768,58 @@
       <c r="I84" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
+  <mergeCells count="87">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A50:B55"/>
+    <mergeCell ref="C50:D55"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A24:B29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B23"/>
+    <mergeCell ref="A11:B16"/>
+    <mergeCell ref="C11:D16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C17:D23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="K2:R2"/>
@@ -2785,54 +2836,26 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="P5:R5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
     <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C17:D23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A24:B29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A50:B55"/>
-    <mergeCell ref="C50:D55"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B23"/>
-    <mergeCell ref="A11:B16"/>
-    <mergeCell ref="C11:D16"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="刷题记录" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -727,8 +727,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,6 +784,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,12 +805,6 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,124 +817,124 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -934,12 +942,14 @@
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1270,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1280,41 +1290,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="17">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="K2" s="35" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="K2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
     </row>
     <row r="3" spans="1:18" ht="17">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1324,43 +1334,43 @@
       <c r="L3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="16">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>42159</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="38">
+      <c r="B4" s="24"/>
+      <c r="C4" s="34">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="44">
+      <c r="K4" s="67">
         <v>42159</v>
       </c>
       <c r="L4" s="14"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="35"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1369,39 +1379,39 @@
       <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" ht="17">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="K5" s="45"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="16">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1409,11 +1419,11 @@
         <v>42160</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="50" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="55" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="19"/>
@@ -1421,69 +1431,69 @@
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" ht="16">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="51"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="16">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>42160</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="38">
+      <c r="B8" s="24"/>
+      <c r="C8" s="34">
         <v>3</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="52"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18" ht="17">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="36" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="57">
+      <c r="K9" s="44">
         <v>42163</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="20" t="s">
         <v>29</v>
       </c>
@@ -1492,23 +1502,23 @@
       <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="17">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="36" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="58"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="34"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="14"/>
       <c r="P10" s="20" t="s">
         <v>32</v>
@@ -1517,129 +1527,129 @@
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="16">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <v>42163</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="38">
+      <c r="B11" s="24"/>
+      <c r="C11" s="34">
         <v>6</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="K11" s="58"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="34"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="16">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="36" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="58"/>
+      <c r="K12" s="69"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="34"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="16">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="36" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="K13" s="59"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="34"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="16">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="53" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="57">
+      <c r="K14" s="44">
         <v>42164</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="16">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="53" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="61"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="16">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="55" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1647,28 +1657,28 @@
         <v>42165</v>
       </c>
       <c r="L16" s="14"/>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="34"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" ht="16">
-      <c r="A17" s="26">
+      <c r="A17" s="23">
         <v>42164</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="38">
+      <c r="B17" s="24"/>
+      <c r="C17" s="34">
         <v>7</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="36" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1682,14 +1692,14 @@
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" ht="16">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="36" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1703,14 +1713,14 @@
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="16">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="36" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1724,18 +1734,18 @@
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" ht="16">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="36" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="68" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="69"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="2"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1747,16 +1757,16 @@
       <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" ht="16">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="36" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="2"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1768,14 +1778,14 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="16">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="65" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1789,18 +1799,18 @@
       <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="16">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="36" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="67" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="2"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1812,16 +1822,16 @@
       <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="16">
-      <c r="A24" s="26">
+      <c r="A24" s="23">
         <v>42165</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="37"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="22"/>
       <c r="H24" s="10"/>
       <c r="I24" s="2"/>
@@ -1835,14 +1845,14 @@
       <c r="R24" s="14"/>
     </row>
     <row r="25" spans="1:18" ht="16">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="22"/>
       <c r="H25" s="10"/>
       <c r="I25" s="2"/>
@@ -1856,14 +1866,14 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="16">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="37"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="22"/>
       <c r="H26" s="10"/>
       <c r="I26" s="2"/>
@@ -1877,8 +1887,8 @@
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
@@ -1896,8 +1906,8 @@
       <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -1915,8 +1925,8 @@
       <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="16">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="9"/>
@@ -1934,16 +1944,16 @@
       <c r="R29" s="14"/>
     </row>
     <row r="30" spans="1:18" ht="16">
-      <c r="A30" s="26">
+      <c r="A30" s="23">
         <v>42177</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="22"/>
       <c r="H30" s="10"/>
       <c r="I30" s="2"/>
@@ -2318,14 +2328,14 @@
       <c r="R49" s="14"/>
     </row>
     <row r="50" spans="1:18" ht="16">
-      <c r="A50" s="26">
+      <c r="A50" s="23">
         <v>42165</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="21"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
@@ -2339,12 +2349,12 @@
       <c r="R50" s="14"/>
     </row>
     <row r="51" spans="1:18" ht="16">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="21"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
@@ -2358,14 +2368,14 @@
       <c r="R51" s="14"/>
     </row>
     <row r="52" spans="1:18" ht="16">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="36" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="37"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="21"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
@@ -2379,12 +2389,12 @@
       <c r="R52" s="14"/>
     </row>
     <row r="53" spans="1:18" ht="16">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="21"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2"/>
@@ -2398,12 +2408,12 @@
       <c r="R53" s="14"/>
     </row>
     <row r="54" spans="1:18" ht="16">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="21"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
@@ -2417,12 +2427,12 @@
       <c r="R54" s="14"/>
     </row>
     <row r="55" spans="1:18" ht="16">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
       <c r="G55" s="21"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2"/>
@@ -2507,7 +2517,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="64" spans="1:18" ht="17">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="46"/>
@@ -2517,87 +2527,87 @@
       <c r="F64" s="46"/>
       <c r="G64" s="46"/>
       <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" ht="17">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46" t="s">
+      <c r="B65" s="28"/>
+      <c r="C65" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46" t="s">
+      <c r="D65" s="28"/>
+      <c r="E65" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="46"/>
-      <c r="G65" s="64" t="s">
+      <c r="F65" s="28"/>
+      <c r="G65" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="63"/>
-      <c r="I65" s="24"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="73"/>
     </row>
     <row r="66" spans="1:9" ht="16">
-      <c r="A66" s="25">
+      <c r="A66" s="29">
         <v>42164</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="23" t="s">
+      <c r="B66" s="71"/>
+      <c r="C66" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="24"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" ht="16">
-      <c r="A67" s="25">
+      <c r="A67" s="29">
         <v>42167</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="23" t="s">
+      <c r="B67" s="71"/>
+      <c r="C67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="23">
+      <c r="D67" s="28"/>
+      <c r="E67" s="27">
         <v>1</v>
       </c>
-      <c r="F67" s="24"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" ht="16">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="23" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="23">
+      <c r="D68" s="28"/>
+      <c r="E68" s="27">
         <v>1</v>
       </c>
-      <c r="F68" s="24"/>
+      <c r="F68" s="28"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" ht="16">
-      <c r="A69" s="25">
+      <c r="A69" s="29">
         <v>42177</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="23" t="s">
+      <c r="B69" s="71"/>
+      <c r="C69" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="23">
+      <c r="D69" s="28"/>
+      <c r="E69" s="27">
         <v>1</v>
       </c>
-      <c r="F69" s="24"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -2769,16 +2779,70 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A50:B55"/>
-    <mergeCell ref="C50:D55"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="C4:D7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A64:I64"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
@@ -2791,71 +2855,17 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="C17:D23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M10:N10"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C4:D7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A50:B55"/>
+    <mergeCell ref="C50:D55"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
